--- a/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1093,7 @@
         <v>0.9942773264561748</v>
       </c>
       <c r="L13">
-        <v>0.9938510866456977</v>
+        <v>0.9938510866456975</v>
       </c>
       <c r="M13">
         <v>0.9944911020928617</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9946571227067933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.007981585008737</v>
+      </c>
+      <c r="D16">
+        <v>0.9702898268664496</v>
+      </c>
+      <c r="E16">
+        <v>0.998104562345598</v>
+      </c>
+      <c r="F16">
+        <v>0.9911618465239928</v>
+      </c>
+      <c r="G16">
+        <v>1.007981585008737</v>
+      </c>
+      <c r="H16">
+        <v>0.9702898268664496</v>
+      </c>
+      <c r="I16">
+        <v>1.004081529301284</v>
+      </c>
+      <c r="J16">
+        <v>0.9884821335975028</v>
+      </c>
+      <c r="K16">
+        <v>0.9999638822424606</v>
+      </c>
+      <c r="L16">
+        <v>0.9791718525351845</v>
+      </c>
+      <c r="M16">
+        <v>1.007981585008737</v>
+      </c>
+      <c r="N16">
+        <v>0.9841971946060237</v>
+      </c>
+      <c r="O16">
+        <v>0.9918844551861942</v>
+      </c>
+      <c r="P16">
+        <v>0.9924046523026512</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.007981585008737</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
@@ -1096,7 +1096,7 @@
         <v>0.9942773264561748</v>
       </c>
       <c r="L13">
-        <v>0.9938510866456975</v>
+        <v>0.9938510866456977</v>
       </c>
       <c r="M13">
         <v>0.9944911020928617</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.052112</v>
+        <v>1.007981585008737</v>
       </c>
       <c r="D10">
-        <v>0.9224720000000014</v>
+        <v>0.9702898268664496</v>
       </c>
       <c r="E10">
-        <v>1.007291999999999</v>
+        <v>0.998104562345598</v>
       </c>
       <c r="F10">
-        <v>0.9822920000000002</v>
+        <v>0.9911618465239928</v>
       </c>
       <c r="G10">
-        <v>1.052112</v>
+        <v>1.007981585008737</v>
       </c>
       <c r="H10">
-        <v>0.9224720000000014</v>
+        <v>0.9702898268664496</v>
       </c>
       <c r="I10">
-        <v>1.018759999999999</v>
+        <v>1.004081529301284</v>
       </c>
       <c r="J10">
-        <v>0.9889560000000002</v>
+        <v>0.9884821335975028</v>
       </c>
       <c r="K10">
-        <v>1.010008</v>
+        <v>0.9999638822424606</v>
       </c>
       <c r="L10">
-        <v>0.9503999999999997</v>
+        <v>0.9791718525351845</v>
       </c>
       <c r="M10">
-        <v>1.052112</v>
+        <v>1.007981585008737</v>
       </c>
       <c r="N10">
-        <v>0.964882</v>
+        <v>0.9841971946060237</v>
       </c>
       <c r="O10">
-        <v>0.991042</v>
+        <v>0.9918844551861942</v>
       </c>
       <c r="P10">
-        <v>0.9915364999999997</v>
+        <v>0.9924046523026512</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.09</v>
+        <v>1.03233341945595</v>
       </c>
       <c r="D11">
-        <v>0.89375</v>
+        <v>0.9338575398741085</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>1.008937105570089</v>
       </c>
       <c r="F11">
-        <v>0.98</v>
+        <v>0.9813260559361409</v>
       </c>
       <c r="G11">
-        <v>1.09</v>
+        <v>1.03233341945595</v>
       </c>
       <c r="H11">
-        <v>0.89375</v>
+        <v>0.9338575398741085</v>
       </c>
       <c r="I11">
-        <v>1.03</v>
+        <v>1.014453956791898</v>
       </c>
       <c r="J11">
-        <v>0.99</v>
+        <v>0.981689406490268</v>
       </c>
       <c r="K11">
-        <v>1.02</v>
+        <v>1.007350784604674</v>
       </c>
       <c r="L11">
-        <v>0.93</v>
+        <v>0.9556289045377829</v>
       </c>
       <c r="M11">
-        <v>1.09</v>
+        <v>1.03233341945595</v>
       </c>
       <c r="N11">
-        <v>0.951875</v>
+        <v>0.9713973227220988</v>
       </c>
       <c r="O11">
-        <v>0.9934375000000001</v>
+        <v>0.9891135302090721</v>
       </c>
       <c r="P11">
-        <v>0.99296875</v>
+        <v>0.989447146657614</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04821447168</v>
+        <v>1.032100065911004</v>
       </c>
       <c r="D12">
-        <v>0.9352298445824052</v>
+        <v>0.9340796749034612</v>
       </c>
       <c r="E12">
-        <v>1.003632689971199</v>
+        <v>1.008890052855742</v>
       </c>
       <c r="F12">
-        <v>0.9855447398400018</v>
+        <v>0.9813582163426429</v>
       </c>
       <c r="G12">
-        <v>1.04821447168</v>
+        <v>1.032100065911004</v>
       </c>
       <c r="H12">
-        <v>0.9352298445824052</v>
+        <v>0.9340796749034612</v>
       </c>
       <c r="I12">
-        <v>1.014614670131198</v>
+        <v>1.014359828692193</v>
       </c>
       <c r="J12">
-        <v>0.9907247951871994</v>
+        <v>0.9817234599749928</v>
       </c>
       <c r="K12">
-        <v>1.009354991820798</v>
+        <v>1.00726733745999</v>
       </c>
       <c r="L12">
-        <v>0.9568786173952007</v>
+        <v>0.9557809965170986</v>
       </c>
       <c r="M12">
-        <v>1.04821447168</v>
+        <v>1.032100065911004</v>
       </c>
       <c r="N12">
-        <v>0.9694312672768022</v>
+        <v>0.9714848638796016</v>
       </c>
       <c r="O12">
-        <v>0.9931554365184015</v>
+        <v>0.9891070025032125</v>
       </c>
       <c r="P12">
-        <v>0.9930243525760003</v>
+        <v>0.9894449540821406</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9944911020928617</v>
+        <v>1.032234317193107</v>
       </c>
       <c r="D13">
-        <v>0.9945755726197733</v>
+        <v>0.9339023434039613</v>
       </c>
       <c r="E13">
-        <v>0.9941970668952507</v>
+        <v>1.008935489096246</v>
       </c>
       <c r="F13">
-        <v>0.9937798242870732</v>
+        <v>0.9813087274382042</v>
       </c>
       <c r="G13">
-        <v>0.9944911020928617</v>
+        <v>1.032234317193107</v>
       </c>
       <c r="H13">
-        <v>0.9945755726197733</v>
+        <v>0.9339023434039613</v>
       </c>
       <c r="I13">
-        <v>0.994026889532716</v>
+        <v>1.014434194059833</v>
       </c>
       <c r="J13">
-        <v>0.9942302306923437</v>
+        <v>0.9816725978504268</v>
       </c>
       <c r="K13">
-        <v>0.9942773264561748</v>
+        <v>1.007336382790808</v>
       </c>
       <c r="L13">
-        <v>0.9938510866456977</v>
+        <v>0.9556630111031639</v>
       </c>
       <c r="M13">
-        <v>0.9944911020928617</v>
+        <v>1.032234317193107</v>
       </c>
       <c r="N13">
-        <v>0.994386319757512</v>
+        <v>0.9714189162501035</v>
       </c>
       <c r="O13">
-        <v>0.9942608914737396</v>
+        <v>0.9890952192828795</v>
       </c>
       <c r="P13">
-        <v>0.9941786374027364</v>
+        <v>0.9894358828669687</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9920140879068344</v>
+        <v>1.052112</v>
       </c>
       <c r="D14">
-        <v>0.9985770541374293</v>
+        <v>0.9224720000000014</v>
       </c>
       <c r="E14">
-        <v>0.9953456847283413</v>
+        <v>1.007291999999999</v>
       </c>
       <c r="F14">
-        <v>0.9954829704189571</v>
+        <v>0.9822920000000002</v>
       </c>
       <c r="G14">
-        <v>0.9920140879068344</v>
+        <v>1.052112</v>
       </c>
       <c r="H14">
-        <v>0.9985770541374293</v>
+        <v>0.9224720000000014</v>
       </c>
       <c r="I14">
-        <v>0.9929237570471223</v>
+        <v>1.018759999999999</v>
       </c>
       <c r="J14">
-        <v>0.9951572124122842</v>
+        <v>0.9889560000000002</v>
       </c>
       <c r="K14">
-        <v>0.9930069312573068</v>
+        <v>1.010008</v>
       </c>
       <c r="L14">
-        <v>0.9958952307805956</v>
+        <v>0.9503999999999997</v>
       </c>
       <c r="M14">
-        <v>0.9920140879068344</v>
+        <v>1.052112</v>
       </c>
       <c r="N14">
-        <v>0.9969613694328853</v>
+        <v>0.964882</v>
       </c>
       <c r="O14">
-        <v>0.9953549492978905</v>
+        <v>0.991042</v>
       </c>
       <c r="P14">
-        <v>0.9948003660861089</v>
+        <v>0.9915364999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9860584812025824</v>
+        <v>1.09</v>
       </c>
       <c r="D15">
-        <v>1.004872109561996</v>
+        <v>0.89375</v>
       </c>
       <c r="E15">
-        <v>0.9911959643942653</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9966323665125452</v>
+        <v>0.98</v>
       </c>
       <c r="G15">
-        <v>0.9860584812025824</v>
+        <v>1.09</v>
       </c>
       <c r="H15">
-        <v>1.004872109561996</v>
+        <v>0.89375</v>
       </c>
       <c r="I15">
-        <v>0.9892561365456692</v>
+        <v>1.03</v>
       </c>
       <c r="J15">
-        <v>0.9962245871770011</v>
+        <v>0.99</v>
       </c>
       <c r="K15">
-        <v>0.9914252152790575</v>
+        <v>1.02</v>
       </c>
       <c r="L15">
-        <v>1.001592120981229</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>0.9860584812025824</v>
+        <v>1.09</v>
       </c>
       <c r="N15">
-        <v>0.9980340369781309</v>
+        <v>0.951875</v>
       </c>
       <c r="O15">
-        <v>0.9946897304178473</v>
+        <v>0.9934375000000001</v>
       </c>
       <c r="P15">
-        <v>0.9946571227067933</v>
+        <v>0.99296875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.007981585008737</v>
+        <v>1.04821447168</v>
       </c>
       <c r="D16">
-        <v>0.9702898268664496</v>
+        <v>0.9352298445824052</v>
       </c>
       <c r="E16">
-        <v>0.998104562345598</v>
+        <v>1.003632689971199</v>
       </c>
       <c r="F16">
-        <v>0.9911618465239928</v>
+        <v>0.9855447398400018</v>
       </c>
       <c r="G16">
-        <v>1.007981585008737</v>
+        <v>1.04821447168</v>
       </c>
       <c r="H16">
-        <v>0.9702898268664496</v>
+        <v>0.9352298445824052</v>
       </c>
       <c r="I16">
-        <v>1.004081529301284</v>
+        <v>1.014614670131198</v>
       </c>
       <c r="J16">
-        <v>0.9884821335975028</v>
+        <v>0.9907247951871994</v>
       </c>
       <c r="K16">
-        <v>0.9999638822424606</v>
+        <v>1.009354991820798</v>
       </c>
       <c r="L16">
-        <v>0.9791718525351845</v>
+        <v>0.9568786173952007</v>
       </c>
       <c r="M16">
-        <v>1.007981585008737</v>
+        <v>1.04821447168</v>
       </c>
       <c r="N16">
-        <v>0.9841971946060237</v>
+        <v>0.9694312672768022</v>
       </c>
       <c r="O16">
-        <v>0.9918844551861942</v>
+        <v>0.9931554365184015</v>
       </c>
       <c r="P16">
-        <v>0.9924046523026512</v>
+        <v>0.9930243525760003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9944911020928617</v>
+      </c>
+      <c r="D17">
+        <v>0.9945755726197733</v>
+      </c>
+      <c r="E17">
+        <v>0.9941970668952507</v>
+      </c>
+      <c r="F17">
+        <v>0.9937798242870732</v>
+      </c>
+      <c r="G17">
+        <v>0.9944911020928617</v>
+      </c>
+      <c r="H17">
+        <v>0.9945755726197733</v>
+      </c>
+      <c r="I17">
+        <v>0.994026889532716</v>
+      </c>
+      <c r="J17">
+        <v>0.9942302306923437</v>
+      </c>
+      <c r="K17">
+        <v>0.9942773264561748</v>
+      </c>
+      <c r="L17">
+        <v>0.9938510866456975</v>
+      </c>
+      <c r="M17">
+        <v>0.9944911020928617</v>
+      </c>
+      <c r="N17">
+        <v>0.994386319757512</v>
+      </c>
+      <c r="O17">
+        <v>0.9942608914737396</v>
+      </c>
+      <c r="P17">
+        <v>0.9941786374027364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9920140879068344</v>
+      </c>
+      <c r="D18">
+        <v>0.9985770541374293</v>
+      </c>
+      <c r="E18">
+        <v>0.9953456847283413</v>
+      </c>
+      <c r="F18">
+        <v>0.9954829704189571</v>
+      </c>
+      <c r="G18">
+        <v>0.9920140879068344</v>
+      </c>
+      <c r="H18">
+        <v>0.9985770541374293</v>
+      </c>
+      <c r="I18">
+        <v>0.9929237570471223</v>
+      </c>
+      <c r="J18">
+        <v>0.9951572124122842</v>
+      </c>
+      <c r="K18">
+        <v>0.9930069312573068</v>
+      </c>
+      <c r="L18">
+        <v>0.9958952307805956</v>
+      </c>
+      <c r="M18">
+        <v>0.9920140879068344</v>
+      </c>
+      <c r="N18">
+        <v>0.9969613694328853</v>
+      </c>
+      <c r="O18">
+        <v>0.9953549492978905</v>
+      </c>
+      <c r="P18">
+        <v>0.9948003660861089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9860584812025824</v>
+      </c>
+      <c r="D19">
+        <v>1.004872109561996</v>
+      </c>
+      <c r="E19">
+        <v>0.9911959643942653</v>
+      </c>
+      <c r="F19">
+        <v>0.9966323665125452</v>
+      </c>
+      <c r="G19">
+        <v>0.9860584812025824</v>
+      </c>
+      <c r="H19">
+        <v>1.004872109561996</v>
+      </c>
+      <c r="I19">
+        <v>0.9892561365456692</v>
+      </c>
+      <c r="J19">
+        <v>0.9962245871770011</v>
+      </c>
+      <c r="K19">
+        <v>0.9914252152790575</v>
+      </c>
+      <c r="L19">
+        <v>1.001592120981229</v>
+      </c>
+      <c r="M19">
+        <v>0.9860584812025824</v>
+      </c>
+      <c r="N19">
+        <v>0.9980340369781309</v>
+      </c>
+      <c r="O19">
+        <v>0.9946897304178473</v>
+      </c>
+      <c r="P19">
+        <v>0.9946571227067933</v>
       </c>
     </row>
   </sheetData>
